--- a/GroupB/Ingame Metrics B.xlsx
+++ b/GroupB/Ingame Metrics B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>participants</t>
   </si>
@@ -97,13 +97,22 @@
     <t>1&amp;2</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>3&amp;4</t>
   </si>
   <si>
+    <t>didnt know eachother</t>
+  </si>
+  <si>
     <t>5&amp;6</t>
   </si>
   <si>
     <t>7&amp;8</t>
+  </si>
+  <si>
+    <t>good friends</t>
   </si>
   <si>
     <t>9&amp;10</t>
@@ -120,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,9 +150,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,23 +195,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,15 +232,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -217,60 +255,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,8 +277,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,13 +344,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,55 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,37 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,49 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +523,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,65 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,18 +603,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,130 +644,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1159,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1420,7 +1417,9 @@
       <c r="J7" s="7">
         <v>625.4287</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
@@ -1742,7 +1741,9 @@
       <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5">
@@ -1758,9 +1759,11 @@
         <v>759.9208</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7">
@@ -1776,9 +1779,11 @@
         <v>934.9745</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9">
@@ -1794,9 +1799,11 @@
         <v>492.4373</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11">
@@ -1812,9 +1819,11 @@
         <v>911.8865</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13">
@@ -1830,9 +1839,11 @@
         <v>16</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="15">
@@ -1848,9 +1859,11 @@
         <v>516.2064</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
